--- a/Library/炉膛负压调节.xlsx
+++ b/Library/炉膛负压调节.xlsx
@@ -78,13 +78,13 @@
     <t>OUTPUTS</t>
   </si>
   <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PARAMETERS</t>
+  </si>
+  <si>
     <t>FUNCTION BLOCK DESCRIPTION</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>PARAMETERS</t>
   </si>
   <si>
     <t>PARA</t>
@@ -609,19 +609,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6"/>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -629,13 +629,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>23</v>
